--- a/biology/Zoologie/Amolops_jinjiangensis/Amolops_jinjiangensis.xlsx
+++ b/biology/Zoologie/Amolops_jinjiangensis/Amolops_jinjiangensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops jinjiangensis est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops jinjiangensis est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Sud de la République populaire de Chine. Elle se rencontre entre 1 020 et 2 000 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Sud de la République populaire de Chine. Elle se rencontre entre 1 020 et 2 000 m d'altitude, :
 dans le Nord-Ouest du Yunnan dans les xians de Shangri-La et de Dêqên dans la préfecture de Dêqên ;
 au Sichuan.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de jinjiang et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le district de Jinjiang.
 </t>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yang, Su &amp; Li, 1983 : A study on amphibians and reptiles from the Hengduanshan Mountains of Yunnan. Acta Herpetologica Sinica, New Series, Chengdu, vol. 2, no 3, p. 37-41.
 Su, Yang &amp; Li, 1986 : A new species of Amolops from the Hengduan Shan Mountains. Acta Herpetologica Sinica, New Series, Chengdu, vol. 5, no 3, p. 204-206.</t>
